--- a/oriole_specimen_info.xlsx
+++ b/oriole_specimen_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/092243813c2a9bd0/Documents/MS Oriole coloration/Oriole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/092243813c2a9bd0/Documents/MS Oriole coloration/BullocksOriole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0BA7F00D-2F90-4B00-AB90-5DB0931874A4}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D45A771-C6C9-4CD3-9F0F-BF81CE61EA36}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="2700" windowWidth="21600" windowHeight="11325" xr2:uid="{B55F2912-393D-4234-9010-6A8F7849D144}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B55F2912-393D-4234-9010-6A8F7849D144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="425">
   <si>
     <t>ID</t>
   </si>
@@ -459,216 +459,6 @@
     <t>58010</t>
   </si>
   <si>
-    <t>BA17718</t>
-  </si>
-  <si>
-    <t>Balt_ref1</t>
-  </si>
-  <si>
-    <t>Balt_ref</t>
-  </si>
-  <si>
-    <t>17718</t>
-  </si>
-  <si>
-    <t>United States, New York, Tompkins County</t>
-  </si>
-  <si>
-    <t>Ithaca</t>
-  </si>
-  <si>
-    <t>BA17724</t>
-  </si>
-  <si>
-    <t>Balt_ref2</t>
-  </si>
-  <si>
-    <t>17724</t>
-  </si>
-  <si>
-    <t>BA17726</t>
-  </si>
-  <si>
-    <t>Balt_ref3</t>
-  </si>
-  <si>
-    <t>17726</t>
-  </si>
-  <si>
-    <t>BA17729</t>
-  </si>
-  <si>
-    <t>Balt_ref4</t>
-  </si>
-  <si>
-    <t>17729</t>
-  </si>
-  <si>
-    <t>8/15/1873</t>
-  </si>
-  <si>
-    <t>United States, New York, Cortland County</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>BA28524</t>
-  </si>
-  <si>
-    <t>Balt_ref5</t>
-  </si>
-  <si>
-    <t>28524</t>
-  </si>
-  <si>
-    <t>Tompkins County Airport, 4 miles NE Ithaca</t>
-  </si>
-  <si>
-    <t>BA35141</t>
-  </si>
-  <si>
-    <t>Balt_ref6</t>
-  </si>
-  <si>
-    <t>35141</t>
-  </si>
-  <si>
-    <t>5/7/1878</t>
-  </si>
-  <si>
-    <t>United States, New York, Lewis County</t>
-  </si>
-  <si>
-    <t>Lowville</t>
-  </si>
-  <si>
-    <t>BA44024</t>
-  </si>
-  <si>
-    <t>Balt_ref7</t>
-  </si>
-  <si>
-    <t>44024</t>
-  </si>
-  <si>
-    <t>United States, New York, Steuben County</t>
-  </si>
-  <si>
-    <t>1.5 mi. S Pultney Tws., Judson Rd.</t>
-  </si>
-  <si>
-    <t>BA48287</t>
-  </si>
-  <si>
-    <t>Balt_ref8</t>
-  </si>
-  <si>
-    <t>48287</t>
-  </si>
-  <si>
-    <t>United States, New York, Yates County</t>
-  </si>
-  <si>
-    <t>4 mi. N. Penn Yan along Seneca Lake</t>
-  </si>
-  <si>
-    <t>BA48648</t>
-  </si>
-  <si>
-    <t>Balt_ref9</t>
-  </si>
-  <si>
-    <t>48648</t>
-  </si>
-  <si>
-    <t>Lansing, 369 Asbury Rd.</t>
-  </si>
-  <si>
-    <t>BA51068</t>
-  </si>
-  <si>
-    <t>Balt_ref10</t>
-  </si>
-  <si>
-    <t>51068</t>
-  </si>
-  <si>
-    <t>United States, New York, Livingston County</t>
-  </si>
-  <si>
-    <t>Avon: Rt 15, 1.7 M S of intersection of Rt 5 and Rt 20</t>
-  </si>
-  <si>
-    <t>BA51245</t>
-  </si>
-  <si>
-    <t>Balt_ref11</t>
-  </si>
-  <si>
-    <t>51245</t>
-  </si>
-  <si>
-    <t>United States, New York, Madison County</t>
-  </si>
-  <si>
-    <t>Cazenovia, Rippleton Crossroad</t>
-  </si>
-  <si>
-    <t>BA53411</t>
-  </si>
-  <si>
-    <t>Balt_ref12</t>
-  </si>
-  <si>
-    <t>53411</t>
-  </si>
-  <si>
-    <t>United States, New York, Seneca County</t>
-  </si>
-  <si>
-    <t>Covert Township: 9374 Route 89</t>
-  </si>
-  <si>
-    <t>BA53509</t>
-  </si>
-  <si>
-    <t>Balt_ref13</t>
-  </si>
-  <si>
-    <t>53509</t>
-  </si>
-  <si>
-    <t>Town of Caroline, ~4 km S Caroline, Old 76 Road</t>
-  </si>
-  <si>
-    <t>BA55519</t>
-  </si>
-  <si>
-    <t>Balt_ref14</t>
-  </si>
-  <si>
-    <t>55519</t>
-  </si>
-  <si>
-    <t>Cornell Laboratory of Ornithology, ~5.5 km NE Ithaca, Sapsucker Woods Road  (Bldg)</t>
-  </si>
-  <si>
-    <t>BA55658</t>
-  </si>
-  <si>
-    <t>Balt_ref15</t>
-  </si>
-  <si>
-    <t>55658</t>
-  </si>
-  <si>
-    <t>United States, Connecticut, Fairfield County</t>
-  </si>
-  <si>
-    <t>Easton</t>
-  </si>
-  <si>
     <t>BU26842</t>
   </si>
   <si>
@@ -1420,12 +1210,6 @@
   </si>
   <si>
     <t>NE</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>CT</t>
   </si>
   <si>
     <t>CO</t>
@@ -1531,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,11 +1340,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1571,18 +1350,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1612,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1629,17 +1402,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1957,11 +1724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7D9E4C-2005-423D-B600-021D26A6AA17}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1970,8 +1737,8 @@
     <col min="2" max="4" width="18" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11" style="6" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
     <col min="10" max="10" width="35.6640625" style="3"/>
     <col min="11" max="11" width="14.33203125" style="3" customWidth="1"/>
@@ -2632,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -2667,7 +2434,7 @@
         <v>20983</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
@@ -2703,7 +2470,7 @@
         <v>20983</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
@@ -2739,7 +2506,7 @@
         <v>20983</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
@@ -2775,7 +2542,7 @@
         <v>20984</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>14</v>
@@ -2811,7 +2578,7 @@
         <v>20984</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>14</v>
@@ -2847,7 +2614,7 @@
         <v>20984</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
@@ -2883,7 +2650,7 @@
         <v>20984</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>14</v>
@@ -2919,7 +2686,7 @@
         <v>20984</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
@@ -2955,7 +2722,7 @@
         <v>20991</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>40</v>
@@ -2991,7 +2758,7 @@
         <v>20991</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>40</v>
@@ -3027,7 +2794,7 @@
         <v>20992</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>40</v>
@@ -3063,7 +2830,7 @@
         <v>20621</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>40</v>
@@ -3099,7 +2866,7 @@
         <v>20994</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>54</v>
@@ -3135,7 +2902,7 @@
         <v>20996</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>54</v>
@@ -3171,7 +2938,7 @@
         <v>20996</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>54</v>
@@ -3207,7 +2974,7 @@
         <v>20996</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>54</v>
@@ -3243,7 +3010,7 @@
         <v>20996</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>54</v>
@@ -3279,7 +3046,7 @@
         <v>20996</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>54</v>
@@ -3315,7 +3082,7 @@
         <v>20996</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>54</v>
@@ -3351,7 +3118,7 @@
         <v>20993</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>54</v>
@@ -3387,7 +3154,7 @@
         <v>42533</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>81</v>
@@ -3423,7 +3190,7 @@
         <v>42533</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>81</v>
@@ -3459,7 +3226,7 @@
         <v>42534</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>81</v>
@@ -3495,7 +3262,7 @@
         <v>42535</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>54</v>
@@ -3531,7 +3298,7 @@
         <v>42535</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>54</v>
@@ -3567,7 +3334,7 @@
         <v>42538</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>54</v>
@@ -3603,7 +3370,7 @@
         <v>42880</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>81</v>
@@ -3639,7 +3406,7 @@
         <v>42880</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>81</v>
@@ -3675,7 +3442,7 @@
         <v>42882</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>54</v>
@@ -3711,7 +3478,7 @@
         <v>42883</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>54</v>
@@ -3747,7 +3514,7 @@
         <v>42883</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>54</v>
@@ -3783,7 +3550,7 @@
         <v>42905</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>54</v>
@@ -3819,7 +3586,7 @@
         <v>42879</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>81</v>
@@ -3855,7 +3622,7 @@
         <v>42879</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>81</v>
@@ -3891,7 +3658,7 @@
         <v>42882</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>54</v>
@@ -3927,7 +3694,7 @@
         <v>42882</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>54</v>
@@ -3963,7 +3730,7 @@
         <v>42907</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>54</v>
@@ -3999,7 +3766,7 @@
         <v>42882</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>54</v>
@@ -4035,7 +3802,7 @@
         <v>42906</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>54</v>
@@ -4065,19 +3832,19 @@
         <v>144</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G41" s="5">
-        <v>15489</v>
+        <v>20639</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4086,10 +3853,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>143</v>
@@ -4098,22 +3865,22 @@
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G42" s="5">
-        <v>14382</v>
+        <v>20639</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4122,10 +3889,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>143</v>
@@ -4134,22 +3901,22 @@
         <v>3</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G43" s="5">
-        <v>15112</v>
+        <v>20637</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -4158,10 +3925,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>143</v>
@@ -4170,22 +3937,22 @@
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="G44" s="5">
+        <v>20637</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4194,10 +3961,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>143</v>
@@ -4206,22 +3973,22 @@
         <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G45" s="5">
-        <v>21037</v>
+        <v>20637</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -4230,10 +3997,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>143</v>
@@ -4242,22 +4009,22 @@
         <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>166</v>
+        <v>145</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20637</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4266,10 +4033,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>143</v>
@@ -4278,22 +4045,22 @@
         <v>7</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G47" s="5">
-        <v>37414</v>
+        <v>20637</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -4302,10 +4069,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>143</v>
@@ -4314,22 +4081,22 @@
         <v>8</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G48" s="5">
-        <v>22788</v>
+        <v>20638</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -4338,10 +4105,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>143</v>
@@ -4350,22 +4117,22 @@
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G49" s="5">
-        <v>35939</v>
+        <v>20638</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -4374,10 +4141,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>143</v>
@@ -4386,22 +4153,22 @@
         <v>10</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G50" s="5">
-        <v>38128</v>
+        <v>20638</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -4410,10 +4177,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>143</v>
@@ -4422,22 +4189,22 @@
         <v>11</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G51" s="5">
-        <v>37015</v>
+        <v>20633</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -4446,10 +4213,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>143</v>
@@ -4458,22 +4225,22 @@
         <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G52" s="5">
-        <v>40304</v>
+        <v>20634</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -4482,10 +4249,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>143</v>
@@ -4494,22 +4261,22 @@
         <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G53" s="5">
-        <v>40325</v>
+        <v>20634</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -4518,10 +4285,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>143</v>
@@ -4530,22 +4297,22 @@
         <v>14</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G54" s="5">
-        <v>41763</v>
+        <v>20632</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -4554,10 +4321,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>143</v>
@@ -4566,22 +4333,22 @@
         <v>15</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G55" s="5">
-        <v>39579</v>
+        <v>20632</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -4590,34 +4357,34 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G56" s="5">
-        <v>20639</v>
+        <v>20632</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -4626,34 +4393,34 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D57" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G57" s="5">
-        <v>20639</v>
+        <v>20633</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -4662,34 +4429,34 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D58" s="4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G58" s="5">
-        <v>20637</v>
+        <v>20633</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -4698,34 +4465,34 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D59" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G59" s="5">
-        <v>20637</v>
+        <v>20633</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -4734,34 +4501,34 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G60" s="5">
-        <v>20637</v>
+        <v>20632</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -4770,34 +4537,34 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D61" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G61" s="5">
-        <v>20637</v>
+        <v>42540</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -4806,34 +4573,34 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D62" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G62" s="5">
-        <v>20637</v>
+        <v>42894</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -4842,34 +4609,34 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D63" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G63" s="5">
-        <v>20638</v>
+        <v>42890</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -4878,34 +4645,34 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D64" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G64" s="5">
-        <v>20638</v>
+        <v>42890</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -4914,34 +4681,34 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D65" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G65" s="5">
-        <v>20638</v>
+        <v>42890</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -4950,34 +4717,34 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D66" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G66" s="5">
-        <v>20633</v>
+        <v>42890</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -4986,34 +4753,34 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D67" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G67" s="5">
-        <v>20634</v>
+        <v>42890</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -5022,34 +4789,34 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D68" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G68" s="5">
-        <v>20634</v>
+        <v>42890</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -5058,34 +4825,34 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D69" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G69" s="5">
-        <v>20632</v>
+        <v>42900</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -5094,34 +4861,34 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D70" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G70" s="5">
-        <v>20632</v>
+        <v>42897</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5130,34 +4897,34 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D71" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G71" s="5">
-        <v>20632</v>
+        <v>42888</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5166,34 +4933,34 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D72" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G72" s="5">
-        <v>20633</v>
+        <v>43258</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -5202,34 +4969,34 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G73" s="5">
-        <v>20633</v>
+        <v>42887</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -5238,34 +5005,34 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G74" s="5">
-        <v>20633</v>
+        <v>42887</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5274,34 +5041,34 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D75" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G75" s="5">
-        <v>20632</v>
+        <v>42887</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -5310,34 +5077,34 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G76" s="5">
-        <v>42540</v>
+        <v>42887</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5346,34 +5113,34 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="D77" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G77" s="5">
-        <v>42894</v>
+        <v>43257</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -5382,34 +5149,34 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="D78" s="4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G78" s="5">
-        <v>42890</v>
+        <v>43257</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -5418,34 +5185,34 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="D79" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G79" s="5">
-        <v>42890</v>
+        <v>43258</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -5454,1822 +5221,1282 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="D80" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="G80" s="5">
-        <v>42890</v>
+        <v>43257</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="Q80" s="4"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="6">
+        <v>18719</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="6">
+        <v>21278</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="6">
+        <v>10744</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84" s="6">
+        <v>10391</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="4">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="6">
+        <v>25344</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="B86" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="4">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G86" s="6">
+        <v>25345</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" s="6">
+        <v>28637</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D81" s="4">
-        <v>6</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G81" s="5">
-        <v>42890</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="Q81" s="4"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="J87" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="4">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G88" s="6">
+        <v>5989</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="4">
-        <v>7</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G82" s="5">
-        <v>42890</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="Q82" s="4"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="J88" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="4">
+        <v>9</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="6">
+        <v>6322</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="4">
-        <v>8</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G83" s="5">
-        <v>42890</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="J89" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="4">
+        <v>10</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="6">
+        <v>862</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D84" s="4">
-        <v>9</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G84" s="5">
-        <v>42900</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="J90" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="4">
+        <v>11</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1610</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="4">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="5">
-        <v>42897</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="J91" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="4">
+        <v>12</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92" s="6">
+        <v>11126</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="4">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G93" s="6">
+        <v>11807</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D86" s="4">
-        <v>11</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G86" s="5">
-        <v>42888</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="J93" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="4">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94" s="6">
+        <v>12610</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" s="4">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="6">
+        <v>10683</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="4">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G87" s="5">
-        <v>43258</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="Q87" s="4"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="J95" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="4">
+        <v>16</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" s="6">
+        <v>13318</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D88" s="4">
-        <v>13</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G88" s="5">
-        <v>42887</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="Q88" s="4"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="4">
-        <v>14</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G89" s="5">
-        <v>42887</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D90" s="4">
-        <v>15</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G90" s="5">
-        <v>42887</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="Q90" s="4"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="4">
-        <v>16</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G91" s="5">
-        <v>42887</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="Q91" s="4"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="4">
-        <v>17</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G92" s="5">
-        <v>43257</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="Q92" s="4"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" s="4">
-        <v>18</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G93" s="5">
-        <v>43257</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="Q93" s="4"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="J96" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" s="4">
-        <v>19</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G94" s="5">
-        <v>43258</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="4">
-        <v>20</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="5">
-        <v>43257</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="Q95" s="4"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G96" s="7">
-        <v>18719</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J96" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="L96" s="9"/>
+      <c r="L96" s="8"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="D97" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G97" s="7">
-        <v>21278</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>461</v>
+        <v>145</v>
+      </c>
+      <c r="G97" s="6">
+        <v>3453</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="L97" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L97" s="8"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="4">
+        <v>18</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D98" s="4">
-        <v>3</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="F98" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="7">
-        <v>10744</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>461</v>
+        <v>145</v>
+      </c>
+      <c r="G98" s="6">
+        <v>3454</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="L98" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L98" s="8"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="D99" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G99" s="7">
-        <v>10391</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>461</v>
+        <v>145</v>
+      </c>
+      <c r="G99" s="6">
+        <v>3456</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L99" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L99" s="8"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="4">
+        <v>20</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="6">
+        <v>16948</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D101" s="3">
+        <v>21</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="6">
+        <v>42520</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" s="3">
+        <v>22</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G102" s="6">
+        <v>31329</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="3">
+        <v>23</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="F103" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G103" s="6">
+        <v>39240</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="4">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G100" s="7">
-        <v>25344</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J100" s="8" t="s">
+      <c r="C104" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="3">
+        <v>24</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="F104" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" s="6">
+        <v>32653</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D101" s="4">
-        <v>6</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="C105" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="3">
+        <v>25</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G101" s="7">
-        <v>25345</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="F105" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G105" s="6">
+        <v>37453</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D102" s="4">
-        <v>7</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="3">
+        <v>26</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G102" s="7">
-        <v>28637</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J102" s="8" t="s">
+      <c r="F106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G106" s="6">
+        <v>40329</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C107" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" s="3">
+        <v>27</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D103" s="4">
-        <v>8</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="F107" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G107" s="6">
+        <v>42520</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G103" s="7">
-        <v>5989</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J103" s="8" t="s">
+      <c r="B108" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="C108" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="3">
+        <v>28</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="F108" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G108" s="6">
+        <v>33041</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D104" s="4">
-        <v>9</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G104" s="7">
-        <v>6322</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J104" s="8" t="s">
+      <c r="C109" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="3">
+        <v>29</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="F109" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G109" s="9">
+        <v>34851</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="I109" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B105" s="4" t="s">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" s="4">
-        <v>10</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G105" s="7">
-        <v>862</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J105" s="8" t="s">
+      <c r="C110" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="3">
+        <v>30</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="F110" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G110" s="6">
+        <v>34869</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D106" s="4">
-        <v>11</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="C111" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="3">
+        <v>31</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G106" s="7">
-        <v>1610</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D107" s="4">
-        <v>12</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G107" s="7">
-        <v>11126</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J107" s="8" t="s">
+      <c r="F111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G111" s="6">
+        <v>38886</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="I111" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" s="3">
+        <v>32</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G112" s="6">
+        <v>34102</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="3">
+        <v>33</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G113" s="6">
+        <v>34870</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="3">
+        <v>34</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G114" s="6">
+        <v>31178</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" s="3">
+        <v>35</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G115" s="6">
+        <v>33036</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="3">
+        <v>36</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G116" s="6">
+        <v>39211</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="3">
+        <v>37</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G117" s="6">
+        <v>30466</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D118" s="3">
+        <v>38</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" s="6">
+        <v>32281</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="3">
+        <v>39</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G119" s="6">
+        <v>37428</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D108" s="4">
-        <v>13</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G108" s="7">
-        <v>11807</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" s="4">
-        <v>14</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="7">
-        <v>12610</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L109" s="9"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D110" s="4">
-        <v>15</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G110" s="7">
-        <v>10683</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D111" s="4">
-        <v>16</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G111" s="7">
-        <v>13318</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D112" s="4">
-        <v>17</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="7">
-        <v>3453</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J112" s="8" t="s">
+      <c r="I119" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="B120" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" s="3">
+        <v>40</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D113" s="4">
-        <v>18</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G113" s="7">
-        <v>3454</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D114" s="4">
-        <v>19</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G114" s="7">
-        <v>3456</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D115" s="4">
-        <v>20</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G115" s="7">
-        <v>16948</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D116" s="3">
-        <v>21</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G116" s="7">
-        <v>42520</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D117" s="3">
-        <v>22</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" s="7">
-        <v>31329</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D118" s="3">
-        <v>23</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G118" s="7">
-        <v>39240</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D119" s="3">
-        <v>24</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G119" s="7">
-        <v>32653</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D120" s="3">
-        <v>25</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="F120" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G120" s="7">
-        <v>37453</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>461</v>
+        <v>145</v>
+      </c>
+      <c r="G120" s="6">
+        <v>38868</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="3">
-        <v>26</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G121" s="7">
-        <v>40329</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D122" s="3">
-        <v>27</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G122" s="7">
-        <v>42520</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D123" s="3">
-        <v>28</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G123" s="7">
-        <v>33041</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D124" s="3">
-        <v>29</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G124" s="10">
-        <v>34851</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D125" s="3">
-        <v>30</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G125" s="7">
-        <v>34869</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D126" s="3">
-        <v>31</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G126" s="7">
-        <v>38886</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D127" s="3">
-        <v>32</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G127" s="7">
-        <v>34102</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D128" s="3">
-        <v>33</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G128" s="7">
-        <v>34870</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D129" s="3">
-        <v>34</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G129" s="7">
-        <v>31178</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D130" s="3">
-        <v>35</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G130" s="7">
-        <v>33036</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D131" s="3">
-        <v>36</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G131" s="7">
-        <v>39211</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D132" s="3">
-        <v>37</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G132" s="7">
-        <v>30466</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D133" s="3">
-        <v>38</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G133" s="7">
-        <v>32281</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D134" s="3">
-        <v>39</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G134" s="7">
-        <v>37428</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D135" s="3">
-        <v>40</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G135" s="7">
-        <v>38868</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/oriole_specimen_info.xlsx
+++ b/oriole_specimen_info.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/092243813c2a9bd0/Documents/MS Oriole coloration/BullocksOriole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D45A771-C6C9-4CD3-9F0F-BF81CE61EA36}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C1C398-5784-4601-BDEB-6642E4BF9BE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B55F2912-393D-4234-9010-6A8F7849D144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$120</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1724,11 +1727,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7D9E4C-2005-423D-B600-021D26A6AA17}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2415,7 @@
       <c r="L1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2451,7 @@
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2483,7 +2487,7 @@
       <c r="M3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="M4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2555,7 +2559,7 @@
       <c r="M5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2595,7 @@
       <c r="M6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -2627,7 +2631,7 @@
       <c r="M7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="M8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2699,7 +2703,7 @@
       <c r="M9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2735,7 +2739,7 @@
       <c r="M10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2775,7 @@
       <c r="M11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="M12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="M13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -2879,7 +2883,7 @@
       <c r="M14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -2915,7 +2919,7 @@
       <c r="M15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
@@ -2951,7 +2955,7 @@
       <c r="M16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2991,7 @@
       <c r="M17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -3023,7 +3027,7 @@
       <c r="M18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -3059,7 +3063,7 @@
       <c r="M19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="M20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -3131,7 +3135,7 @@
       <c r="M21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
@@ -3167,7 +3171,7 @@
       <c r="M22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>83</v>
       </c>
@@ -3203,7 +3207,7 @@
       <c r="M23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -3239,7 +3243,7 @@
       <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>90</v>
       </c>
@@ -3275,7 +3279,7 @@
       <c r="M25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>94</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="M26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="M27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
@@ -3383,7 +3387,7 @@
       <c r="M28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="M29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -3455,7 +3459,7 @@
       <c r="M30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
@@ -3491,7 +3495,7 @@
       <c r="M31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
@@ -3527,7 +3531,7 @@
       <c r="M32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
@@ -3563,7 +3567,7 @@
       <c r="M33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="M34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>122</v>
       </c>
@@ -3635,7 +3639,7 @@
       <c r="M35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>125</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="M36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>128</v>
       </c>
@@ -3707,7 +3711,7 @@
       <c r="M37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="M38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>135</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="M39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
@@ -3815,7 +3819,7 @@
       <c r="M40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>141</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="M41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
@@ -3887,7 +3891,7 @@
       <c r="M42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>151</v>
       </c>
@@ -3923,7 +3927,7 @@
       <c r="M43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -3959,7 +3963,7 @@
       <c r="M44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -3995,7 +3999,7 @@
       <c r="M45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>160</v>
       </c>
@@ -4031,7 +4035,7 @@
       <c r="M46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>163</v>
       </c>
@@ -4067,7 +4071,7 @@
       <c r="M47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>166</v>
       </c>
@@ -4103,7 +4107,7 @@
       <c r="M48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>169</v>
       </c>
@@ -4139,7 +4143,7 @@
       <c r="M49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>172</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="M50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>175</v>
       </c>
@@ -4211,7 +4215,7 @@
       <c r="M51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>180</v>
       </c>
@@ -4247,7 +4251,7 @@
       <c r="M52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -4283,7 +4287,7 @@
       <c r="M53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>186</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="M54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>189</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="M55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>192</v>
       </c>
@@ -4391,7 +4395,7 @@
       <c r="M56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>195</v>
       </c>
@@ -4427,7 +4431,7 @@
       <c r="M57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>198</v>
       </c>
@@ -4463,7 +4467,7 @@
       <c r="M58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>201</v>
       </c>
@@ -4499,7 +4503,7 @@
       <c r="M59" s="4"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>204</v>
       </c>
@@ -4535,7 +4539,7 @@
       <c r="M60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>207</v>
       </c>
@@ -4571,7 +4575,7 @@
       <c r="M61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>213</v>
       </c>
@@ -4607,7 +4611,7 @@
       <c r="M62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>217</v>
       </c>
@@ -4643,7 +4647,7 @@
       <c r="M63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>221</v>
       </c>
@@ -4679,7 +4683,7 @@
       <c r="M64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>224</v>
       </c>
@@ -4715,7 +4719,7 @@
       <c r="M65" s="4"/>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>227</v>
       </c>
@@ -4751,7 +4755,7 @@
       <c r="M66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
@@ -4787,7 +4791,7 @@
       <c r="M67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>233</v>
       </c>
@@ -4823,7 +4827,7 @@
       <c r="M68" s="4"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>236</v>
       </c>
@@ -4859,7 +4863,7 @@
       <c r="M69" s="4"/>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>239</v>
       </c>
@@ -4895,7 +4899,7 @@
       <c r="M70" s="4"/>
       <c r="Q70" s="4"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>242</v>
       </c>
@@ -4931,7 +4935,7 @@
       <c r="M71" s="4"/>
       <c r="Q71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -4967,7 +4971,7 @@
       <c r="M72" s="4"/>
       <c r="Q72" s="4"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>249</v>
       </c>
@@ -5003,7 +5007,7 @@
       <c r="M73" s="4"/>
       <c r="Q73" s="4"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>254</v>
       </c>
@@ -5039,7 +5043,7 @@
       <c r="M74" s="4"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>257</v>
       </c>
@@ -5075,7 +5079,7 @@
       <c r="M75" s="4"/>
       <c r="Q75" s="4"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>260</v>
       </c>
@@ -5111,7 +5115,7 @@
       <c r="M76" s="4"/>
       <c r="Q76" s="4"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>263</v>
       </c>
@@ -5147,7 +5151,7 @@
       <c r="M77" s="4"/>
       <c r="Q77" s="4"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>266</v>
       </c>
@@ -5183,7 +5187,7 @@
       <c r="M78" s="4"/>
       <c r="Q78" s="4"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>269</v>
       </c>
@@ -5219,7 +5223,7 @@
       <c r="M79" s="4"/>
       <c r="Q79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>272</v>
       </c>
@@ -6496,6 +6500,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C120" xr:uid="{CA7D9E4C-2005-423D-B600-021D26A6AA17}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Bull_ref"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oriole_specimen_info.xlsx
+++ b/oriole_specimen_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/092243813c2a9bd0/Documents/MS Oriole coloration/BullocksOriole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C1C398-5784-4601-BDEB-6642E4BF9BE4}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{924FE130-3A9E-4B27-B293-0938F5575DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0681576-D3E3-4696-B489-C1C2F6EBEA89}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B55F2912-393D-4234-9010-6A8F7849D144}"/>
+    <workbookView xWindow="228" yWindow="672" windowWidth="22716" windowHeight="11688" xr2:uid="{B55F2912-393D-4234-9010-6A8F7849D144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1727,12 +1727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7D9E4C-2005-423D-B600-021D26A6AA17}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2414,7 @@
       <c r="L1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2451,7 +2450,7 @@
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2487,7 +2486,7 @@
       <c r="M3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2522,7 @@
       <c r="M4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2558,7 @@
       <c r="M5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="M6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -2631,7 +2630,7 @@
       <c r="M7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2667,7 +2666,7 @@
       <c r="M8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2703,7 +2702,7 @@
       <c r="M9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2739,7 +2738,7 @@
       <c r="M10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -2775,7 +2774,7 @@
       <c r="M11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -2811,7 +2810,7 @@
       <c r="M12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -2847,7 +2846,7 @@
       <c r="M13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -2883,7 +2882,7 @@
       <c r="M14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -2919,7 +2918,7 @@
       <c r="M15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="M16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2991,7 +2990,7 @@
       <c r="M17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -3027,7 +3026,7 @@
       <c r="M18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -3063,7 +3062,7 @@
       <c r="M19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3099,7 +3098,7 @@
       <c r="M20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -3135,7 +3134,7 @@
       <c r="M21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
@@ -3171,7 +3170,7 @@
       <c r="M22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>83</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="M23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -3243,7 +3242,7 @@
       <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>90</v>
       </c>
@@ -3279,7 +3278,7 @@
       <c r="M25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>94</v>
       </c>
@@ -3315,7 +3314,7 @@
       <c r="M26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
@@ -3351,7 +3350,7 @@
       <c r="M27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
@@ -3387,7 +3386,7 @@
       <c r="M28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="M29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="M30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
@@ -3495,7 +3494,7 @@
       <c r="M31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
@@ -3531,7 +3530,7 @@
       <c r="M32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="M33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>119</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="M34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>122</v>
       </c>
@@ -3639,7 +3638,7 @@
       <c r="M35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>125</v>
       </c>
@@ -3675,7 +3674,7 @@
       <c r="M36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>128</v>
       </c>
@@ -3711,7 +3710,7 @@
       <c r="M37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="M38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>135</v>
       </c>
@@ -3783,7 +3782,7 @@
       <c r="M39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="M40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>141</v>
       </c>
@@ -3855,7 +3854,7 @@
       <c r="M41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="M42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>151</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="M43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="M44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>157</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="M45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>160</v>
       </c>
@@ -4035,7 +4034,7 @@
       <c r="M46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>163</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="M47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>166</v>
       </c>
@@ -4107,7 +4106,7 @@
       <c r="M48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>169</v>
       </c>
@@ -4143,7 +4142,7 @@
       <c r="M49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>172</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="M50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>175</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="M51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>180</v>
       </c>
@@ -4251,7 +4250,7 @@
       <c r="M52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -4287,7 +4286,7 @@
       <c r="M53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>186</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="M54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>189</v>
       </c>
@@ -4359,7 +4358,7 @@
       <c r="M55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>192</v>
       </c>
@@ -4395,7 +4394,7 @@
       <c r="M56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>195</v>
       </c>
@@ -4431,7 +4430,7 @@
       <c r="M57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>198</v>
       </c>
@@ -4467,7 +4466,7 @@
       <c r="M58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>201</v>
       </c>
@@ -4503,7 +4502,7 @@
       <c r="M59" s="4"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>204</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="M60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>207</v>
       </c>
@@ -4575,7 +4574,7 @@
       <c r="M61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>213</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="M62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>217</v>
       </c>
@@ -4647,7 +4646,7 @@
       <c r="M63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>221</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="M64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>224</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="M65" s="4"/>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>227</v>
       </c>
@@ -4755,7 +4754,7 @@
       <c r="M66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
@@ -4791,7 +4790,7 @@
       <c r="M67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>233</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="M68" s="4"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>236</v>
       </c>
@@ -4863,7 +4862,7 @@
       <c r="M69" s="4"/>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>239</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="M70" s="4"/>
       <c r="Q70" s="4"/>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>242</v>
       </c>
@@ -4935,7 +4934,7 @@
       <c r="M71" s="4"/>
       <c r="Q71" s="4"/>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>246</v>
       </c>
@@ -4971,7 +4970,7 @@
       <c r="M72" s="4"/>
       <c r="Q72" s="4"/>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>249</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="M73" s="4"/>
       <c r="Q73" s="4"/>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>254</v>
       </c>
@@ -5043,7 +5042,7 @@
       <c r="M74" s="4"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>257</v>
       </c>
@@ -5079,7 +5078,7 @@
       <c r="M75" s="4"/>
       <c r="Q75" s="4"/>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>260</v>
       </c>
@@ -5115,7 +5114,7 @@
       <c r="M76" s="4"/>
       <c r="Q76" s="4"/>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>263</v>
       </c>
@@ -5151,7 +5150,7 @@
       <c r="M77" s="4"/>
       <c r="Q77" s="4"/>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>266</v>
       </c>
@@ -5187,7 +5186,7 @@
       <c r="M78" s="4"/>
       <c r="Q78" s="4"/>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>269</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="M79" s="4"/>
       <c r="Q79" s="4"/>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>272</v>
       </c>
@@ -6500,13 +6499,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C120" xr:uid="{CA7D9E4C-2005-423D-B600-021D26A6AA17}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Bull_ref"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
